--- a/UserlistInfo.xlsx
+++ b/UserlistInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Trang tính1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="UserlistInfo" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>type</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>http:facebook.com</t>
+  </si>
+  <si>
+    <t>URLfdf</t>
   </si>
   <si>
     <t>AND</t>
@@ -367,13 +370,13 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
